--- a/split_data/input/all_cities/YiLan.xlsx
+++ b/split_data/input/all_cities/YiLan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,7 +1159,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>頭城鎮台2線129k+309m梗枋國小南下,速限50公里</t>
+          <t>頭城鎮台2線123k+642m大溪段北上,速限50公里</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1182,7 +1182,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>頭城鎮台2線131k+121m外澳段南下,速限50公里、北上,速限60公里</t>
+          <t>頭城鎮台2線129k+309m梗枋國小南下,速限50公里</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1205,7 +1205,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>頭城鎮台2線133k+769m港口段南下,速限60公里</t>
+          <t>頭城鎮台2線131k+121m外澳段南下,速限50公里、北上,速限60公里</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1228,7 +1228,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>頭城鎮台2線139k+738m竹安段南下,速限60公里</t>
+          <t>頭城鎮台2線133k+769m港口段南下,速限60公里</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1251,7 +1251,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>頭城鎮191甲線2k+50m中崙段南下,速限60公里</t>
+          <t>頭城鎮台2線139k+738m竹安段南下,速限60公里</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1274,7 +1274,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>頭城鎮台9線69k+20m北宜路一段南下,速限60公里</t>
+          <t>頭城鎮191甲線2k+50m中崙段南下,速限60公里</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1297,7 +1297,7 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>頭城鎮宜3線3k+850m宜三路南下,速限50公里</t>
+          <t>頭城鎮台9線69k+20m北宜路一段南下,速限60公里</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1320,7 +1320,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>礁溪鄉191線4k瑪僯段北上,速限60公里</t>
+          <t>頭城鎮宜3線3k+850m宜三路南下,速限50公里</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1343,7 +1343,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>礁溪鄉191甲線6k+600m玉田段北上,速限60公里</t>
+          <t>礁溪鄉191線4k瑪僯段北上,速限60公里</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1366,7 +1366,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>礁溪鄉宜4線4k+280m大塭段東向,速限50公里</t>
+          <t>礁溪鄉191甲線6k+600m玉田段北上,速限60公里</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1389,7 +1389,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>礁溪鄉份尾三路北上(份尾橋南側100公尺處),速限50公里</t>
+          <t>礁溪鄉宜4線4k+280m大塭段東向,速限50公里</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1412,7 +1412,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>壯圍鄉台2線142k+480m大福段北上,速限60公里</t>
+          <t>礁溪鄉份尾三路北上(份尾橋南側100公尺處),速限50公里</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1435,7 +1435,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>壯圍鄉台2線150k+199m公館段南下,速限60公里</t>
+          <t>壯圍鄉台2線142k+480m大福段北上,速限60公里</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1458,12 +1458,12 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>壯圍鄉191線與雪隧路口南下</t>
+          <t>壯圍鄉台2線150k+199m公館段南下,速限60公里</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -1481,12 +1481,12 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>壯圍鄉台2線147k+40m過嶺國小南下,速限60公里</t>
+          <t>壯圍鄉191線與雪隧路口南下</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>測速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -1504,7 +1504,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>壯圍鄉台2線148k+400m後埤段北上,速限60公里</t>
+          <t>壯圍鄉台2線147k+40m過嶺國小南下,速限60公里</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -1527,7 +1527,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>壯圍鄉宜20線1k+150m新南段西向,速限60公里</t>
+          <t>壯圍鄉台2線148k+400m後埤段北上,速限60公里</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -1550,7 +1550,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>壯圍鄉宜16線7k+500m新南段西向,速限50公里</t>
+          <t>壯圍鄉宜20線1k+150m新南段西向,速限60公里</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -1573,7 +1573,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>壯圍鄉宜16線9k+500m美福段東向,速限50公里</t>
+          <t>壯圍鄉宜9線3k+100m中央路三段南下,速限大車50公里、小車60公里</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -1596,7 +1596,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>頭城鎮台2線128k+65m梗枋地磅站北上，速限60公里</t>
+          <t>壯圍鄉宜16線7k+500m新南段西向,速限50公里</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -1619,7 +1619,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>頭城鎮台9線68k+600m至56k+600m南往北,速限40公里</t>
+          <t>壯圍鄉宜16線9k+500m美福段東向,速限50公里</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -1642,7 +1642,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>頭城鎮台9線56k+600m至68k+600m北往南,速限40公里</t>
+          <t>頭城鎮台2線128k+65m梗枋地磅站北上，速限60公里</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -1665,7 +1665,7 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>蘇澳鎮台2線164k+390m港邊段南下,速限70公里</t>
+          <t>頭城鎮台9線68k+600m至56k+600m南往北,速限40公里</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -1688,7 +1688,7 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>蘇澳鎮台2戊線12k+215m移山路北上,速限60公里</t>
+          <t>頭城鎮台9線56k+600m至68k+600m北往南,速限40公里</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -1711,7 +1711,7 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>蘇澳鎮台2線166k+259m蘇澳港段南下，速限60公里</t>
+          <t>蘇澳鎮台2線164k+390m港邊段南下,速限70公里</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -1734,7 +1734,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>蘇澳鎮台9線100k+224m新城段北上,速限60公里</t>
+          <t>蘇澳鎮台2戊線12k+215m移山路北上,速限60公里</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -1757,7 +1757,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>蘇澳鎮台9線102k+200m聖湖段南下,速限60公里</t>
+          <t>蘇澳鎮台2線166k+259m蘇澳港段南下，速限60公里</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -1780,7 +1780,7 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>蘇澳鎮台9線117k+772m新澳隧道北上,速限40公里</t>
+          <t>蘇澳鎮台9線100k+224m新城段北上,速限60公里</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -1803,7 +1803,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>蘇澳鎮台9線103k+562m南下,速限50公里</t>
+          <t>蘇澳鎮台9線102k+200m聖湖段南下,速限60公里</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -1826,7 +1826,7 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>南澳鄉台9線123k+570ｍ南澳段北上,速限50公里</t>
+          <t>蘇澳鎮台9線117k+772m新澳隧道北上,速限40公里</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -1849,7 +1849,7 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>蘇澳鎮台9線109k+240m東澳隧道南下,速限70公里，最低速限50公里</t>
+          <t>蘇澳鎮台9線103k+562m南下,速限50公里</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -1872,7 +1872,7 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>南澳鄉台9線110k+300m東澳隧道北上,速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線123k+570ｍ南澳段北上,速限50公里</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -1895,7 +1895,7 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>南澳鄉台9線130k+492m觀音隧道南下,速限70公里，最低速限50公里</t>
+          <t>蘇澳鎮台9線109k+240m東澳隧道南下,速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -1918,7 +1918,7 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>南澳鄉台9線133k+289m觀音隧道南下,速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線110k+300m東澳隧道北上,速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -1941,7 +1941,7 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>南澳鄉台9線135k+910m觀音隧道南下,速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線130k+492m觀音隧道南下,速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -1964,7 +1964,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>南澳鄉台9線130k+347m觀音隧道北上,速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線133k+289m觀音隧道南下,速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -1987,7 +1987,7 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>南澳鄉台9線133k+174m觀音隧道北上,速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線135k+910m觀音隧道南下,速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2010,7 +2010,7 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>南澳鄉台9線135k+841m觀音隧道北上,速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線130k+347m觀音隧道北上,速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2033,7 +2033,7 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>南澳鄉台9線138k+677m谷風隧道南下,速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線133k+174m觀音隧道北上,速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2056,7 +2056,7 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>南澳鄉台9線139k+667m谷風隧道北上,速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線135k+841m觀音隧道北上,速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2079,12 +2079,12 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>蘇澳鎮台9線108k+269m至南澳鄉台9線110k+995m(東澳隧道南下),速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線138k+677m谷風隧道南下,速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>測速跨線未保安距</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -2102,12 +2102,12 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>南澳鎮台9線110k+960m至蘇澳鎮台9線108k+224m(東澳隧道北上),速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線139k+667m谷風隧道北上,速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>測速跨線未保安距</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -2125,7 +2125,7 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>南澳鄉台9線129k+404m至131k+860m(觀音隧道南下),速限70公里，最低速限50公里</t>
+          <t>蘇澳鎮台9線108k+269m至南澳鄉台9線110k+995m(東澳隧道南下),速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -2148,7 +2148,7 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>南澳鄉台9線131k+860m至134k+538m(觀音隧道南下),速限70公里，最低速限50公里</t>
+          <t>南澳鎮台9線110k+960m至蘇澳鎮台9線108k+224m(東澳隧道北上),速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -2171,7 +2171,7 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>南澳鄉台9線134k+538m至136k+883m(觀音隧道南下),速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線129k+404m至131k+860m(觀音隧道南下),速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -2194,7 +2194,7 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>南澳鄉台9線136k+912m至134k+405m(觀音隧道北上),速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線131k+860m至134k+538m(觀音隧道南下),速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -2217,7 +2217,7 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>南澳鄉台9線134k+405m至131k+849m(觀音隧道北上),速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線134k+538m至136k+883m(觀音隧道南下),速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -2240,7 +2240,7 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>南澳鄉台9線131k+849m至129k+360m(觀音隧道北上),速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線136k+912m至134k+405m(觀音隧道北上),速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -2263,7 +2263,7 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>南澳鄉台9線137k+295m至141k+458m(谷風隧道南下),速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線134k+405m至131k+849m(觀音隧道北上),速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -2286,7 +2286,7 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>南澳鄉台9線141k+420m至137k+205m(谷風隧道北上),速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線131k+849m至129k+360m(觀音隧道北上),速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -2309,12 +2309,12 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>三星鄉台7丙線18k+342ｍ大隱段東向,速限60公里</t>
+          <t>南澳鄉台9線137k+295m至141k+458m(谷風隧道南下),速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>測速</t>
+          <t>測速跨線未保安距</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -2332,12 +2332,12 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>三星鄉台7丙線19k+865m大隱段西向,速限60公里</t>
+          <t>南澳鄉台9線141k+420m至137k+205m(谷風隧道北上),速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>測速</t>
+          <t>測速跨線未保安距</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -2355,7 +2355,7 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>三星鄉宜61線3k+800ｍ大洲段北上,速限60公里</t>
+          <t>三星鄉台7丙線18k+342ｍ大隱段東向,速限60公里</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -2378,7 +2378,7 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>三星鄉宜61線3k+600ｍ大洲段南下,速限60公里</t>
+          <t>三星鄉台7丙線19k+865m大隱段西向,速限60公里</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -2401,7 +2401,7 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>三星鄉196線3k+800ｍ萬富段東向,速限60公里</t>
+          <t>三星鄉宜61線3k+800ｍ大洲段北上,速限60公里</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -2424,7 +2424,7 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>三星鄉196線7k+900ｍ大埔段西向,速限60公里</t>
+          <t>三星鄉宜61線3k+600ｍ大洲段南下,速限60公里</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -2447,7 +2447,7 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>三星鄉196線11k大洲段東向,速限50公里</t>
+          <t>三星鄉196線3k+800ｍ萬富段東向,速限60公里</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -2470,12 +2470,12 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>東澳隧道北上及南下路段</t>
+          <t>三星鄉196線7k+900ｍ大埔段西向,速限60公里</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>普通重型機車行駛公告禁行路段</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -2493,12 +2493,12 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>觀音隧道北上及南下路段</t>
+          <t>三星鄉196線11k大洲段東向,速限50公里</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>普通重型機車行駛公告禁行路段</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -2516,7 +2516,7 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>谷風隧道北上及南下路段</t>
+          <t>東澳隧道北上及南下路段</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -2539,12 +2539,12 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>宜蘭市舊城南路、神農路、中山路口</t>
+          <t>觀音隧道北上及南下路段</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>闖紅燈、不暫停讓行人、直行車占用轉彎車道、多車道左、右轉彎不先駛入內、外車道、不依標誌、標線、號誌指示行駛</t>
+          <t>普通重型機車行駛公告禁行路段</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
@@ -2562,12 +2562,12 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>宜蘭市泰山路、女中路、嵐峰路口</t>
+          <t>谷風隧道北上及南下路段</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>闖紅燈、直行車占用轉彎車道、多車道左、右轉彎不先駛入內、外車道、不依標誌、標線、號誌指示行駛</t>
+          <t>普通重型機車行駛公告禁行路段</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -2585,12 +2585,12 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>宜蘭市林森路、校舍路口</t>
+          <t>宜蘭市舊城南路、神農路、中山路口</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>闖紅燈、不依標誌、標線、號誌指示行駛、多車道左、右轉彎不先駛入內、外車道</t>
+          <t>闖紅燈、不暫停讓行人、直行車占用轉彎車道、多車道左、右轉彎不先駛入內、外車道、不依標誌、標線、號誌指示行駛</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -2608,7 +2608,7 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>宜蘭市中山路五段、環市東路三段路口</t>
+          <t>宜蘭市泰山路、女中路、嵐峰路口</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -2631,12 +2631,12 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>羅東鎮中山路、純精路口</t>
+          <t>宜蘭市林森路、校舍路口</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>快車道右轉彎、未依規定兩段式左轉、闖紅燈、直行車道左轉彎</t>
+          <t>闖紅燈、不依標誌、標線、號誌指示行駛、多車道左、右轉彎不先駛入內、外車道</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -2654,12 +2654,12 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>羅東鎮公正路、大同路、中正路、中正北路口</t>
+          <t>宜蘭市中山路五段、環市東路三段路口</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>違規停車</t>
+          <t>闖紅燈、直行車占用轉彎車道、多車道左、右轉彎不先駛入內、外車道、不依標誌、標線、號誌指示行駛</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -2677,12 +2677,12 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>羅東鎮南昌街聖母醫院前</t>
+          <t>羅東鎮中山路、純精路口</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>闖紅燈、違規停車</t>
+          <t>快車道右轉彎、未依規定兩段式左轉、闖紅燈、直行車道左轉彎</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -2700,12 +2700,12 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>羅東鎮河濱路、仁愛路三段、復興路三段</t>
+          <t>羅東鎮公正路、大同路、中正路、中正北路口</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>闖紅燈、不依標誌、標線、號誌指示行駛（特定路段、時段禁行砂石車、聯結車及大貨車等）</t>
+          <t>違規停車</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -2723,7 +2723,7 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>礁溪鄉礁溪路五段90巷口</t>
+          <t>羅東鎮南昌街聖母醫院前</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -2746,12 +2746,12 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
-          <t>礁溪鄉礁溪路四段與育才路口</t>
+          <t>羅東鎮河濱路、仁愛路三段、復興路三段</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>闖紅燈、違規停車、不暫停讓行人、直行車占用轉彎車道、多車道左、右轉彎不先駛入內、外車道、不依標誌、標線、號誌指示行駛</t>
+          <t>闖紅燈、不依標誌、標線、號誌指示行駛（特定路段、時段禁行砂石車、聯結車及大貨車等）</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -2769,12 +2769,12 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
-          <t>頭城鎮台2線梗枋地磅站出入口</t>
+          <t>礁溪鄉礁溪路五段90巷口</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>跨越雙黃線、超速、車種偵測-載重車輛未依規定進入過磅</t>
+          <t>闖紅燈、違規停車</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
@@ -2792,12 +2792,12 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
-          <t>頭城鎮台9線北宜石牌縣界公園入口</t>
+          <t>礁溪鄉礁溪路四段與育才路口</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>跨越雙黃線、車種偵測-禁行聯結車</t>
+          <t>闖紅燈、違規停車、不暫停讓行人、直行車占用轉彎車道、多車道左、右轉彎不先駛入內、外車道、不依標誌、標線、號誌指示行駛</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
@@ -2815,12 +2815,12 @@
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
-          <t>頭城鎮台2線131k+150m(濱海路二段465巷路口)</t>
+          <t>頭城鎮台2線梗枋地磅站出入口</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>跨越雙黃線、超速、車種偵測-載重車輛未依規定進入過磅</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
@@ -2838,12 +2838,12 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>頭城鎮台2線131k+275m(濱海路二段427巷路口)</t>
+          <t>頭城鎮台9線北宜石牌縣界公園入口</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>跨越雙黃線、車種偵測-禁行聯結車</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -2861,7 +2861,7 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
         <is>
-          <t>頭城鎮台2線132k+100m(外澳車站前)</t>
+          <t>頭城鎮台2線131k+150m(濱海路二段465巷路口)</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -2884,12 +2884,12 @@
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr">
         <is>
-          <t>頭城鎮濱海路一段與烏石港路</t>
+          <t>頭城鎮台2線131k+275m(濱海路二段427巷路口)</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>闖紅燈、違規迴車、不暫停讓行人、不依標誌、標線、號誌指示行駛</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
@@ -2907,12 +2907,12 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr">
         <is>
-          <t>蘇澳鎮新馬路、海山西、馬賽路口</t>
+          <t>頭城鎮台2線132k+100m(外澳車站前)</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>闖紅燈、違規停車、直行車占用轉彎車道、多車道左、右轉彎不先駛入內、外車道、不依標誌、標線、號誌指示行駛</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H107" t="inlineStr"/>
@@ -2930,12 +2930,12 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
         <is>
-          <t>蘇澳鎮中山路一段與蘇港路口</t>
+          <t>頭城鎮濱海路一段與烏石港路</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>闖紅燈、不按遵行之方向行駛、不依規定駛入來車道</t>
+          <t>闖紅燈、違規迴車、不暫停讓行人、不依標誌、標線、號誌指示行駛</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
@@ -2953,12 +2953,12 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
         <is>
-          <t>蘇澳鎮蘇港路與育才路口</t>
+          <t>蘇澳鎮新馬路、海山西、馬賽路口</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>闖紅燈、不暫停讓行人、不依標誌、標線、號誌指示行駛</t>
+          <t>闖紅燈、違規停車、直行車占用轉彎車道、多車道左、右轉彎不先駛入內、外車道、不依標誌、標線、號誌指示行駛</t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
@@ -2976,16 +2976,62 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
         <is>
-          <t>三星鄉上將路、大洲路口</t>
+          <t>蘇澳鎮中山路一段與蘇港路口</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>闖紅燈、特定時段禁行大貨車</t>
+          <t>闖紅燈、不按遵行之方向行駛、不依規定駛入來車道</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>宜蘭縣</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>蘇澳鎮蘇港路與育才路口</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>闖紅燈、不暫停讓行人、不依標誌、標線、號誌指示行駛</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>宜蘭縣</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>三星鄉上將路、大洲路口</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>闖紅燈、特定時段禁行大貨車</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
